--- a/Resultados/RESULTADOS_6.xlsx
+++ b/Resultados/RESULTADOS_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="E2" t="n">
-        <v>54.95</v>
+        <v>62.03</v>
       </c>
       <c r="F2" t="n">
         <v>48.24</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="E3" t="n">
-        <v>38.87</v>
+        <v>41.34</v>
       </c>
       <c r="F3" t="n">
         <v>35.04</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="E4" t="n">
-        <v>35.66</v>
+        <v>37.15</v>
       </c>
       <c r="F4" t="n">
         <v>32.44</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="E5" t="n">
-        <v>34.13</v>
+        <v>35.17</v>
       </c>
       <c r="F5" t="n">
         <v>31.18</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="E6" t="n">
-        <v>33.55</v>
+        <v>34.35</v>
       </c>
       <c r="F6" t="n">
         <v>30.76</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="E7" t="n">
-        <v>32.92</v>
+        <v>33.56</v>
       </c>
       <c r="F7" t="n">
         <v>30.23</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="E8" t="n">
-        <v>32.55</v>
+        <v>33.09</v>
       </c>
       <c r="F8" t="n">
         <v>29.93</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="E9" t="n">
-        <v>32.22</v>
+        <v>32.67</v>
       </c>
       <c r="F9" t="n">
         <v>29.66</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="E10" t="n">
-        <v>32.07</v>
+        <v>32.43</v>
       </c>
       <c r="F10" t="n">
         <v>29.54</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="E11" t="n">
-        <v>31.92</v>
+        <v>32.19</v>
       </c>
       <c r="F11" t="n">
         <v>29.38</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="E12" t="n">
-        <v>32.11</v>
+        <v>32.21</v>
       </c>
       <c r="F12" t="n">
         <v>29.44</v>
@@ -1459,6 +1459,88 @@
         <v>1</v>
       </c>
       <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="G13" t="n">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>157.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19605.66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>260.19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14468.14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>43.16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
         <v>10</v>
       </c>
     </row>
